--- a/biology/Zoologie/Dicroglossidae/Dicroglossidae.xlsx
+++ b/biology/Zoologie/Dicroglossidae/Dicroglossidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dicroglossidae sont une famille d'amphibiens[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dicroglossidae sont une famille d'amphibiens. 
 Elle a été créée par John Anderson (1833-1900) en 1871.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des 15 genres de cette famille se rencontrent en Afrique, en Asie et en Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des 15 genres de cette famille se rencontrent en Afrique, en Asie et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 juin 2017) :
 sous-famille Dicroglossinae Anderson, 1871
 genre Allopaa Ohler &amp; Dubois, 2006
 genre Chrysopaa Ohler &amp; Dubois, 2006
@@ -590,7 +606,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anderson, 1871 : A list of the reptilian accession to the Indian Museum, Calcutta from 1865 to 1870, with a description of some new species. Journal of the Asiatic Society of Bengal, vol. 40, no 1, p. 12-39 (texte intégral).</t>
         </is>
